--- a/liberiaCoverageVillageForm.xlsx
+++ b/liberiaCoverageVillageForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/liberiaS3Mforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E4C04-47E9-764F-9534-9DC83BEAC9CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C02601F-1FBB-0A45-955C-AE0BE3C8C7B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="459">
   <si>
     <t>type</t>
   </si>
@@ -68,165 +68,39 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>select_one county</t>
-  </si>
-  <si>
     <t>cid</t>
   </si>
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>select_one village</t>
   </si>
   <si>
-    <t>vname</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
     <t>county = ${cid}</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>vid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(selected(${vname}, “Village 1”), 1, if(selected(${vname}, “Village 2”), 2, if(selected(${vname}, “Village 3”), 3, if(selected(${vname}, “Village 4”), 4, if(selected(${vname}, “Village 5”), 5, if(selected(${vname}, “Village 6”), 6, if(selected(${vname}, “Village 7”), 7, if(selected(${vname}, “Village 8”), 8, if(selected(${vname}, “Village 9”), 9, if(selected(${vname}, “Village 10”), 10, if(selected(${vname}, “Village 11”), 11, if(selected(${vname}, “Village 12”), 12, if(selected(${vname}, “Village 13”), 13, if(selected(${vname}, “Village 14”), 14, if(selected(${vname}, “Village 15”), 15, if(selected(${vname}, “Village 16”), 16, if(selected(${vname}, “Village 17”), 17, if(selected(${vname}, “Village 18”), 18, if(selected(${vname}, “Village 19”), 19, if(selected(${vname}, “Village 20”), 20, if(selected(${vname}, “Village 21”), 21, if(selected(${vname}, “Village 22”), 22, if(selected(${vname}, “Village 23”), 23, if(selected(${vname}, “Village 24”), 24, if(selected(${vname}, “Village 25”), 25, if(selected(${vname}, “Village 26”), 26, if(selected(${vname}, “Village 27”), 27, if(selected(${vname}, “Village 28”), 28, if(selected(${vname}, “Village 29”), 29, 30))))))))))))))))))))))))))))) </t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>Village population</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
     <t>coords</t>
   </si>
   <si>
-    <t>Record GPS location of ${vname}.</t>
-  </si>
-  <si>
     <t>list name</t>
   </si>
   <si>
     <t>county</t>
   </si>
   <si>
-    <t>Rural Montserrado</t>
-  </si>
-  <si>
-    <t>Urban Montserrado</t>
-  </si>
-  <si>
-    <t>Grand Bassa</t>
-  </si>
-  <si>
     <t>village</t>
   </si>
   <si>
-    <t>Village 1</t>
-  </si>
-  <si>
-    <t>Village 2</t>
-  </si>
-  <si>
-    <t>Village 3</t>
-  </si>
-  <si>
-    <t>Village 4</t>
-  </si>
-  <si>
-    <t>Village 5</t>
-  </si>
-  <si>
-    <t>Village 6</t>
-  </si>
-  <si>
-    <t>Village 7</t>
-  </si>
-  <si>
-    <t>Village 8</t>
-  </si>
-  <si>
-    <t>Village 9</t>
-  </si>
-  <si>
-    <t>Village 10</t>
-  </si>
-  <si>
-    <t>Village 11</t>
-  </si>
-  <si>
-    <t>Village 12</t>
-  </si>
-  <si>
-    <t>Village 13</t>
-  </si>
-  <si>
-    <t>Village 14</t>
-  </si>
-  <si>
-    <t>Village 15</t>
-  </si>
-  <si>
-    <t>Village 16</t>
-  </si>
-  <si>
-    <t>Village 17</t>
-  </si>
-  <si>
-    <t>Village 18</t>
-  </si>
-  <si>
-    <t>Village 19</t>
-  </si>
-  <si>
-    <t>Village 20</t>
-  </si>
-  <si>
-    <t>Village 21</t>
-  </si>
-  <si>
-    <t>Village 22</t>
-  </si>
-  <si>
-    <t>Village 23</t>
-  </si>
-  <si>
-    <t>Village 24</t>
-  </si>
-  <si>
-    <t>Village 25</t>
-  </si>
-  <si>
-    <t>Village 26</t>
-  </si>
-  <si>
-    <t>Village 27</t>
-  </si>
-  <si>
-    <t>Village 28</t>
-  </si>
-  <si>
-    <t>Village 29</t>
-  </si>
-  <si>
-    <t>Village 30</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -252,6 +126,1284 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>select_one surveyarea</t>
+  </si>
+  <si>
+    <t>Survey area</t>
+  </si>
+  <si>
+    <t>Greater Monrovia District</t>
+  </si>
+  <si>
+    <t>Grand Bassa County</t>
+  </si>
+  <si>
+    <t>Greater Monrovai District</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>Elwa</t>
+  </si>
+  <si>
+    <t>Foster Town</t>
+  </si>
+  <si>
+    <t>Wamba Town</t>
+  </si>
+  <si>
+    <t>Marcasville</t>
+  </si>
+  <si>
+    <t>Sinda Town</t>
+  </si>
+  <si>
+    <t>Duport</t>
+  </si>
+  <si>
+    <t>Bassa Community</t>
+  </si>
+  <si>
+    <t>Nipay Town</t>
+  </si>
+  <si>
+    <t>Larkpase</t>
+  </si>
+  <si>
+    <t>Parker Paint</t>
+  </si>
+  <si>
+    <t>Kaiph Town</t>
+  </si>
+  <si>
+    <t>Sinkor</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>Nizohn</t>
+  </si>
+  <si>
+    <t>Morris Farm</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Clara Town</t>
+  </si>
+  <si>
+    <t>Topoe Village</t>
+  </si>
+  <si>
+    <t>Day Break Mouth Open</t>
+  </si>
+  <si>
+    <t>Lower Johnsonville (Hines Vill</t>
+  </si>
+  <si>
+    <t>Kpelle Town Johnsonville</t>
+  </si>
+  <si>
+    <t>Bong Mine Bridge</t>
+  </si>
+  <si>
+    <t>Zoiboi Town</t>
+  </si>
+  <si>
+    <t>Dandawailo (1)</t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>Twe Farm</t>
+  </si>
+  <si>
+    <t>Watchin Town</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Kissi Kormah</t>
+  </si>
+  <si>
+    <t>Bassa Town Caldwell</t>
+  </si>
+  <si>
+    <t>Pohkpa Village</t>
+  </si>
+  <si>
+    <t>Gbueban Village</t>
+  </si>
+  <si>
+    <t>Volugbo Village</t>
+  </si>
+  <si>
+    <t>Chipay Village</t>
+  </si>
+  <si>
+    <t>Karr Henry</t>
+  </si>
+  <si>
+    <t>Dehyusaweh Village</t>
+  </si>
+  <si>
+    <t>Jalaydaye</t>
+  </si>
+  <si>
+    <t>Clayehyee</t>
+  </si>
+  <si>
+    <t>David Villages</t>
+  </si>
+  <si>
+    <t>Chadeh Village</t>
+  </si>
+  <si>
+    <t>Peoland / Nemon</t>
+  </si>
+  <si>
+    <t>Worwein Vilage</t>
+  </si>
+  <si>
+    <t>Readygar Village</t>
+  </si>
+  <si>
+    <t>Dugboryewh Village</t>
+  </si>
+  <si>
+    <t>Goffa Village</t>
+  </si>
+  <si>
+    <t>Konoe Village</t>
+  </si>
+  <si>
+    <t>Naka</t>
+  </si>
+  <si>
+    <t>Neeter</t>
+  </si>
+  <si>
+    <t>Firestone Village</t>
+  </si>
+  <si>
+    <t>Sweet Gaye</t>
+  </si>
+  <si>
+    <t>Newcess</t>
+  </si>
+  <si>
+    <t>Duah Village</t>
+  </si>
+  <si>
+    <t>Garmondeh / Troyea Vi</t>
+  </si>
+  <si>
+    <t>Gborgar Village</t>
+  </si>
+  <si>
+    <t>Vaimah</t>
+  </si>
+  <si>
+    <t>Zardah</t>
+  </si>
+  <si>
+    <t>Whea Village</t>
+  </si>
+  <si>
+    <t>Kodou Village</t>
+  </si>
+  <si>
+    <t>Portroyah Village</t>
+  </si>
+  <si>
+    <t>Sammie Village</t>
+  </si>
+  <si>
+    <t>Zoepu Village</t>
+  </si>
+  <si>
+    <t>Glaydor Village</t>
+  </si>
+  <si>
+    <t>Gaye John</t>
+  </si>
+  <si>
+    <t>Borbor</t>
+  </si>
+  <si>
+    <t>Manneh</t>
+  </si>
+  <si>
+    <t>Jubia</t>
+  </si>
+  <si>
+    <t>Borbor's Village</t>
+  </si>
+  <si>
+    <t>Wralakfa</t>
+  </si>
+  <si>
+    <t>Prayer</t>
+  </si>
+  <si>
+    <t>Kaksbahn</t>
+  </si>
+  <si>
+    <t>Rubein Village</t>
+  </si>
+  <si>
+    <t>Guah Village</t>
+  </si>
+  <si>
+    <t>Guah</t>
+  </si>
+  <si>
+    <t>Joe Farmer</t>
+  </si>
+  <si>
+    <t>Whob Village</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Kupue Village</t>
+  </si>
+  <si>
+    <t>Floh</t>
+  </si>
+  <si>
+    <t>Domah</t>
+  </si>
+  <si>
+    <t>Jeremiah Harris</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Kpehyou</t>
+  </si>
+  <si>
+    <t>Joynor Village</t>
+  </si>
+  <si>
+    <t>Kpehpue</t>
+  </si>
+  <si>
+    <t>Kporkon</t>
+  </si>
+  <si>
+    <t>Kpelle Village</t>
+  </si>
+  <si>
+    <t>Wheigo</t>
+  </si>
+  <si>
+    <t>James Zonoe</t>
+  </si>
+  <si>
+    <t>Maye Village</t>
+  </si>
+  <si>
+    <t>Peter's Glay</t>
+  </si>
+  <si>
+    <t>Kair's Village</t>
+  </si>
+  <si>
+    <t>Memangar Village</t>
+  </si>
+  <si>
+    <t>Zeogar</t>
+  </si>
+  <si>
+    <t>Gboyah / Yeakai Villa</t>
+  </si>
+  <si>
+    <t>Geezaye</t>
+  </si>
+  <si>
+    <t>Qwrakpo</t>
+  </si>
+  <si>
+    <t>Tarloe</t>
+  </si>
+  <si>
+    <t>Deabozohn</t>
+  </si>
+  <si>
+    <t>Gorzohn</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Ben's</t>
+  </si>
+  <si>
+    <t>Korzohn</t>
+  </si>
+  <si>
+    <t>Margar Village</t>
+  </si>
+  <si>
+    <t>Gbor Joe</t>
+  </si>
+  <si>
+    <t>Wahn</t>
+  </si>
+  <si>
+    <t>Burtroyah</t>
+  </si>
+  <si>
+    <t>Tiah Village</t>
+  </si>
+  <si>
+    <t>Malikor's</t>
+  </si>
+  <si>
+    <t>Little Bassa</t>
+  </si>
+  <si>
+    <t>Samuel Browne</t>
+  </si>
+  <si>
+    <t>Barwain</t>
+  </si>
+  <si>
+    <t>Duo Village</t>
+  </si>
+  <si>
+    <t>Gor</t>
+  </si>
+  <si>
+    <t>Beanan Village</t>
+  </si>
+  <si>
+    <t>Gbargaye</t>
+  </si>
+  <si>
+    <t>Jahway Village</t>
+  </si>
+  <si>
+    <t>Kro</t>
+  </si>
+  <si>
+    <t>Zuah Village</t>
+  </si>
+  <si>
+    <t>Behzon Village</t>
+  </si>
+  <si>
+    <t>Wesseh Village</t>
+  </si>
+  <si>
+    <t>Bueh</t>
+  </si>
+  <si>
+    <t>Kpah</t>
+  </si>
+  <si>
+    <t>Gbarzee</t>
+  </si>
+  <si>
+    <t>Gbarzee Mission</t>
+  </si>
+  <si>
+    <t>Kollie</t>
+  </si>
+  <si>
+    <t>Janjay</t>
+  </si>
+  <si>
+    <t>Gbaquep</t>
+  </si>
+  <si>
+    <t>Quegar</t>
+  </si>
+  <si>
+    <t>Baa</t>
+  </si>
+  <si>
+    <t>Tarpue</t>
+  </si>
+  <si>
+    <t>Yeasay</t>
+  </si>
+  <si>
+    <t>Karmour</t>
+  </si>
+  <si>
+    <t>Lay's Village</t>
+  </si>
+  <si>
+    <t>Gardea # 2</t>
+  </si>
+  <si>
+    <t>Godgbarn</t>
+  </si>
+  <si>
+    <t>Karyour</t>
+  </si>
+  <si>
+    <t>Boegbah</t>
+  </si>
+  <si>
+    <t>Laffiah</t>
+  </si>
+  <si>
+    <t>Amos Cleon</t>
+  </si>
+  <si>
+    <t>Pastor</t>
+  </si>
+  <si>
+    <t>Boe</t>
+  </si>
+  <si>
+    <t>Togar</t>
+  </si>
+  <si>
+    <t>Gbewillie</t>
+  </si>
+  <si>
+    <t>Juah</t>
+  </si>
+  <si>
+    <t>Noway</t>
+  </si>
+  <si>
+    <t>Leecoil</t>
+  </si>
+  <si>
+    <t>Six New Camp</t>
+  </si>
+  <si>
+    <t>Estate 2 Bongolo</t>
+  </si>
+  <si>
+    <t>Cattle Bahn Camp</t>
+  </si>
+  <si>
+    <t>Division 4.1 Office</t>
+  </si>
+  <si>
+    <t>Six Old Camp</t>
+  </si>
+  <si>
+    <t>Bear -Bear Camp</t>
+  </si>
+  <si>
+    <t>Djueh Camp</t>
+  </si>
+  <si>
+    <t>Kpain Camp</t>
+  </si>
+  <si>
+    <t>Division 1.1 Office</t>
+  </si>
+  <si>
+    <t>Zeanweah Camp</t>
+  </si>
+  <si>
+    <t>Division 2.3 Office</t>
+  </si>
+  <si>
+    <t>David Gboh Camp</t>
+  </si>
+  <si>
+    <t>3 Old Camp</t>
+  </si>
+  <si>
+    <t>Barzon Village</t>
+  </si>
+  <si>
+    <t>Palace Village</t>
+  </si>
+  <si>
+    <t>Nycgweh</t>
+  </si>
+  <si>
+    <t>Kugbeh Village</t>
+  </si>
+  <si>
+    <t>Koezohn Village</t>
+  </si>
+  <si>
+    <t>Cole's Village</t>
+  </si>
+  <si>
+    <t>Garmah Village</t>
+  </si>
+  <si>
+    <t>Dougbah</t>
+  </si>
+  <si>
+    <t>Bar Village</t>
+  </si>
+  <si>
+    <t>Bean's</t>
+  </si>
+  <si>
+    <t>Troyahbarh village</t>
+  </si>
+  <si>
+    <t>Sailama Village</t>
+  </si>
+  <si>
+    <t>Borbor Village</t>
+  </si>
+  <si>
+    <t>Wrue-Wah Village</t>
+  </si>
+  <si>
+    <t>Peter Hata Village</t>
+  </si>
+  <si>
+    <t>Zyne-Where Village</t>
+  </si>
+  <si>
+    <t>Ruben Smith</t>
+  </si>
+  <si>
+    <t>Johnny Garyah</t>
+  </si>
+  <si>
+    <t>Beh</t>
+  </si>
+  <si>
+    <t>Hard Time Village</t>
+  </si>
+  <si>
+    <t>Goesuah</t>
+  </si>
+  <si>
+    <t>John Clarke Village</t>
+  </si>
+  <si>
+    <t>Tweah Zammes</t>
+  </si>
+  <si>
+    <t>Woekpeh Juah</t>
+  </si>
+  <si>
+    <t>Thomas Vonzih</t>
+  </si>
+  <si>
+    <t>Sayli Village</t>
+  </si>
+  <si>
+    <t>Worldwid  Mission</t>
+  </si>
+  <si>
+    <t>Trysee Village</t>
+  </si>
+  <si>
+    <t>Kolako Village</t>
+  </si>
+  <si>
+    <t>Glebah / Worfour Vill</t>
+  </si>
+  <si>
+    <t>Karyou Village</t>
+  </si>
+  <si>
+    <t>Charley Gio / Kpakpel</t>
+  </si>
+  <si>
+    <t>Krankie Village</t>
+  </si>
+  <si>
+    <t>Weamorgar</t>
+  </si>
+  <si>
+    <t>Jacob Village</t>
+  </si>
+  <si>
+    <t>Dee Village</t>
+  </si>
+  <si>
+    <t>Gurtor Village</t>
+  </si>
+  <si>
+    <t>Payone Village</t>
+  </si>
+  <si>
+    <t>Matada Village</t>
+  </si>
+  <si>
+    <t>Bethlehem Village</t>
+  </si>
+  <si>
+    <t>Kpalimue</t>
+  </si>
+  <si>
+    <t>Tokpah Village</t>
+  </si>
+  <si>
+    <t>Bozohn</t>
+  </si>
+  <si>
+    <t>Lolayah Village</t>
+  </si>
+  <si>
+    <t>Bigboy Village</t>
+  </si>
+  <si>
+    <t>Gorworh Village</t>
+  </si>
+  <si>
+    <t>Wrehyou</t>
+  </si>
+  <si>
+    <t>Zuagar</t>
+  </si>
+  <si>
+    <t>Samuel Village</t>
+  </si>
+  <si>
+    <t>Painyoucom Village</t>
+  </si>
+  <si>
+    <t>Sulonteh Village</t>
+  </si>
+  <si>
+    <t>Noryougbah Village</t>
+  </si>
+  <si>
+    <t>Weebo / Zedrew</t>
+  </si>
+  <si>
+    <t>George Briggs / Tuku</t>
+  </si>
+  <si>
+    <t>Wredyu</t>
+  </si>
+  <si>
+    <t>Kargar / Yard</t>
+  </si>
+  <si>
+    <t>Gud</t>
+  </si>
+  <si>
+    <t>Manideh / Dowher</t>
+  </si>
+  <si>
+    <t>Zlowein</t>
+  </si>
+  <si>
+    <t>Dahn / Flanke</t>
+  </si>
+  <si>
+    <t>Zorwein</t>
+  </si>
+  <si>
+    <t>Borbor's</t>
+  </si>
+  <si>
+    <t>Garmana Village</t>
+  </si>
+  <si>
+    <t>Kofa Gborgar</t>
+  </si>
+  <si>
+    <t>Kona</t>
+  </si>
+  <si>
+    <t>Baye</t>
+  </si>
+  <si>
+    <t>Benzohn</t>
+  </si>
+  <si>
+    <t>Gueh</t>
+  </si>
+  <si>
+    <t>Mannah Whea Village</t>
+  </si>
+  <si>
+    <t>Refaco Camp</t>
+  </si>
+  <si>
+    <t>Kahyah</t>
+  </si>
+  <si>
+    <t>Bold Dollar</t>
+  </si>
+  <si>
+    <t>Farr</t>
+  </si>
+  <si>
+    <t>Morris Gbehgbeh</t>
+  </si>
+  <si>
+    <t>Willie</t>
+  </si>
+  <si>
+    <t>Boue Village</t>
+  </si>
+  <si>
+    <t>Juah's</t>
+  </si>
+  <si>
+    <t>Wodorgbah / Nimely Vi</t>
+  </si>
+  <si>
+    <t>Buegbo</t>
+  </si>
+  <si>
+    <t>Kiray Town/Buegba Vil</t>
+  </si>
+  <si>
+    <t>Gio Village</t>
+  </si>
+  <si>
+    <t>Nyuda</t>
+  </si>
+  <si>
+    <t>Yanmoh</t>
+  </si>
+  <si>
+    <t>Kpaliyelah</t>
+  </si>
+  <si>
+    <t>Zinc Kitchen</t>
+  </si>
+  <si>
+    <t>Kpannah/David</t>
+  </si>
+  <si>
+    <t>Varney</t>
+  </si>
+  <si>
+    <t>Robert Cebal</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Bono/Daklhere Village</t>
+  </si>
+  <si>
+    <t>Douweh/Wheeto Town</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Whemyou</t>
+  </si>
+  <si>
+    <t>Gber</t>
+  </si>
+  <si>
+    <t>New Gbanga</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Old Gbanga</t>
+  </si>
+  <si>
+    <t>Fuafua-Weon</t>
+  </si>
+  <si>
+    <t>Gerneo</t>
+  </si>
+  <si>
+    <t>Bai</t>
+  </si>
+  <si>
+    <t>Bai mission</t>
+  </si>
+  <si>
+    <t>Nado</t>
+  </si>
+  <si>
+    <t>Worhn</t>
+  </si>
+  <si>
+    <t>Duayou</t>
+  </si>
+  <si>
+    <t>Goegar Village</t>
+  </si>
+  <si>
+    <t>Ballah Village</t>
+  </si>
+  <si>
+    <t>Gargar's Village</t>
+  </si>
+  <si>
+    <t>Dolo</t>
+  </si>
+  <si>
+    <t>Zeon</t>
+  </si>
+  <si>
+    <t>Nyakpah Village</t>
+  </si>
+  <si>
+    <t>Budu</t>
+  </si>
+  <si>
+    <t>Gaye Flomo</t>
+  </si>
+  <si>
+    <t>Gbiahgaye</t>
+  </si>
+  <si>
+    <t>Glabo Village #1</t>
+  </si>
+  <si>
+    <t>Waygron Village</t>
+  </si>
+  <si>
+    <t>Kpu-Jimmy</t>
+  </si>
+  <si>
+    <t>Zahn</t>
+  </si>
+  <si>
+    <t>Karr's / Gbah Tumah</t>
+  </si>
+  <si>
+    <t>Yarkpah</t>
+  </si>
+  <si>
+    <t>Logan Village # 1</t>
+  </si>
+  <si>
+    <t>Gonoe / Garvah</t>
+  </si>
+  <si>
+    <t>Kaykay / Kpawoe / Bua</t>
+  </si>
+  <si>
+    <t>Joemlue</t>
+  </si>
+  <si>
+    <t>Two Cent</t>
+  </si>
+  <si>
+    <t>Teewaygar Village</t>
+  </si>
+  <si>
+    <t>Gbenyan Town # 1</t>
+  </si>
+  <si>
+    <t>Gbenyan Town # 2</t>
+  </si>
+  <si>
+    <t>Bahn / Peter G.Sahn</t>
+  </si>
+  <si>
+    <t>John Kianue / Wee Zeo</t>
+  </si>
+  <si>
+    <t>Jah Fair</t>
+  </si>
+  <si>
+    <t>Kiamue Giah</t>
+  </si>
+  <si>
+    <t>Goweh / John Nover</t>
+  </si>
+  <si>
+    <t>Barseegiah</t>
+  </si>
+  <si>
+    <t>Sawkpah</t>
+  </si>
+  <si>
+    <t>Winshue</t>
+  </si>
+  <si>
+    <t>James Pue</t>
+  </si>
+  <si>
+    <t>Jallah</t>
+  </si>
+  <si>
+    <t>Kassian Village</t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>Garkpee</t>
+  </si>
+  <si>
+    <t>Manawon</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Larway / James Zoko</t>
+  </si>
+  <si>
+    <t>Dahn- Jimmy</t>
+  </si>
+  <si>
+    <t>Suah / Dolo</t>
+  </si>
+  <si>
+    <t>Geedyu</t>
+  </si>
+  <si>
+    <t>Kpohn</t>
+  </si>
+  <si>
+    <t>Boe-Wee</t>
+  </si>
+  <si>
+    <t>Zeh Village</t>
+  </si>
+  <si>
+    <t>Zohn</t>
+  </si>
+  <si>
+    <t>Charlie's / Morflemh</t>
+  </si>
+  <si>
+    <t>Wheazohn / Doun</t>
+  </si>
+  <si>
+    <t>Karpee</t>
+  </si>
+  <si>
+    <t>Gbodoe/ Goeh Village</t>
+  </si>
+  <si>
+    <t>Raccoon Village</t>
+  </si>
+  <si>
+    <t>Matie / Sumo Village</t>
+  </si>
+  <si>
+    <t>Yeah</t>
+  </si>
+  <si>
+    <t>Gearge Ploms Village</t>
+  </si>
+  <si>
+    <t>Heneny Smith Village</t>
+  </si>
+  <si>
+    <t>Blo-Wheon</t>
+  </si>
+  <si>
+    <t>Dolemue</t>
+  </si>
+  <si>
+    <t>Bindaghoh/Mobay Villa</t>
+  </si>
+  <si>
+    <t>Paye Village</t>
+  </si>
+  <si>
+    <t>Paye Town/Framk Moeba</t>
+  </si>
+  <si>
+    <t>Bondo/Dukuly Village</t>
+  </si>
+  <si>
+    <t>Femah</t>
+  </si>
+  <si>
+    <t>Kolleh Jimmy/Congo</t>
+  </si>
+  <si>
+    <t>Nahndoe</t>
+  </si>
+  <si>
+    <t>Gbeahgaveazohn</t>
+  </si>
+  <si>
+    <t>Mudeh</t>
+  </si>
+  <si>
+    <t>Yahwea / Galawolo</t>
+  </si>
+  <si>
+    <t>David Crawford</t>
+  </si>
+  <si>
+    <t>Vlekpah</t>
+  </si>
+  <si>
+    <t>Garva</t>
+  </si>
+  <si>
+    <t>Bonnie Part</t>
+  </si>
+  <si>
+    <t>Gbogar / Daryou / Moo</t>
+  </si>
+  <si>
+    <t>Whenzohn</t>
+  </si>
+  <si>
+    <t>Doeneah Garway</t>
+  </si>
+  <si>
+    <t>Kpoe Village</t>
+  </si>
+  <si>
+    <t>Mamadee / Gbar Villag</t>
+  </si>
+  <si>
+    <t>Kemoweh's Village</t>
+  </si>
+  <si>
+    <t>Gbango Village</t>
+  </si>
+  <si>
+    <t>Vionless's Village</t>
+  </si>
+  <si>
+    <t>Geezon</t>
+  </si>
+  <si>
+    <t>Gweh</t>
+  </si>
+  <si>
+    <t>Kyne's</t>
+  </si>
+  <si>
+    <t>Daydeah</t>
+  </si>
+  <si>
+    <t>Kwatoe</t>
+  </si>
+  <si>
+    <t>Jacob's / Gaye Moore</t>
+  </si>
+  <si>
+    <t>Gozohn</t>
+  </si>
+  <si>
+    <t>Gaye</t>
+  </si>
+  <si>
+    <t>Buebee</t>
+  </si>
+  <si>
+    <t>Gone</t>
+  </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>Fiamah Village</t>
+  </si>
+  <si>
+    <t>Philips Vah</t>
+  </si>
+  <si>
+    <t>Whoeyoko</t>
+  </si>
+  <si>
+    <t>Nagbo</t>
+  </si>
+  <si>
+    <t>Sakpayah</t>
+  </si>
+  <si>
+    <t>Watchee</t>
+  </si>
+  <si>
+    <t>Kpelle-Toe</t>
+  </si>
+  <si>
+    <t>Gonn</t>
+  </si>
+  <si>
+    <t>Gardea</t>
+  </si>
+  <si>
+    <t>Tarr Town / Gbardyu</t>
+  </si>
+  <si>
+    <t>Paw-Paw</t>
+  </si>
+  <si>
+    <t>Kpokon</t>
+  </si>
+  <si>
+    <t>Sammy Piso</t>
+  </si>
+  <si>
+    <t>New Zardyu</t>
+  </si>
+  <si>
+    <t>Gbogar</t>
+  </si>
+  <si>
+    <t>Kaka-Gbain / Vaingbon</t>
+  </si>
+  <si>
+    <t>Taylue</t>
+  </si>
+  <si>
+    <t>Gormah</t>
+  </si>
+  <si>
+    <t>Wee</t>
+  </si>
+  <si>
+    <t>Duo</t>
+  </si>
+  <si>
+    <t>Ceein</t>
+  </si>
+  <si>
+    <t>Garmondah Village</t>
+  </si>
+  <si>
+    <t>Ceezohn</t>
+  </si>
+  <si>
+    <t>Desoe</t>
+  </si>
+  <si>
+    <t>Saylor</t>
+  </si>
+  <si>
+    <t>Wroyonwon Diasaw</t>
+  </si>
+  <si>
+    <t>Moore Goffa Village /</t>
+  </si>
+  <si>
+    <t>George Solo</t>
+  </si>
+  <si>
+    <t>Deabaseh / Tompoe</t>
+  </si>
+  <si>
+    <t>Gbor-Larsaw / Jackson</t>
+  </si>
+  <si>
+    <t>Kondour</t>
+  </si>
+  <si>
+    <t>Yarpoe / Robert / Zeo</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Zeongar</t>
+  </si>
+  <si>
+    <t>Karr's</t>
+  </si>
+  <si>
+    <t>Boe Wesseh</t>
+  </si>
+  <si>
+    <t>Wehgar</t>
+  </si>
+  <si>
+    <t>Kangba</t>
+  </si>
+  <si>
+    <t>Gblelawra</t>
+  </si>
+  <si>
+    <t>Tar</t>
+  </si>
+  <si>
+    <t>Memyo</t>
+  </si>
+  <si>
+    <t>Mepol</t>
+  </si>
+  <si>
+    <t>Gayezun /  Gaylor's</t>
+  </si>
+  <si>
+    <t>Gargbo Village</t>
+  </si>
+  <si>
+    <t>Kayar's</t>
+  </si>
+  <si>
+    <t>Garneo Town</t>
+  </si>
+  <si>
+    <t>Sawzohn</t>
+  </si>
+  <si>
+    <t>Juejay</t>
+  </si>
+  <si>
+    <t>Peablah/Peayanblah</t>
+  </si>
+  <si>
+    <t>Yeanay's</t>
+  </si>
+  <si>
+    <t>Kaikayoh</t>
+  </si>
+  <si>
+    <t>Borbawein</t>
+  </si>
+  <si>
+    <t>Taye</t>
+  </si>
+  <si>
+    <t>Wehngbo</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Yokpo</t>
+  </si>
+  <si>
+    <t>Whankai's</t>
+  </si>
+  <si>
+    <t>James Naloo Village</t>
+  </si>
+  <si>
+    <t>Whinee Village</t>
+  </si>
+  <si>
+    <t>Weasay</t>
+  </si>
+  <si>
+    <t>Daniel / Marborle</t>
+  </si>
+  <si>
+    <t>Jumoe Town / Gomu Vil</t>
+  </si>
+  <si>
+    <t>Malomkai's</t>
+  </si>
+  <si>
+    <t>Name of enumeration Area/village</t>
+  </si>
+  <si>
+    <t>Population of ${ea} (Enumeration Area / Village population).</t>
+  </si>
+  <si>
+    <t>surveyarea</t>
+  </si>
+  <si>
+    <t>Record GPS location of ${ea}.</t>
   </si>
 </sst>
 </file>
@@ -309,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -322,11 +1474,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,24 +1866,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="25.1640625" style="3"/>
-    <col min="3" max="4" width="50.33203125" style="3"/>
-    <col min="5" max="10" width="25.1640625" style="3"/>
-    <col min="11" max="11" width="50.33203125" style="3"/>
-    <col min="12" max="13" width="25.1640625" style="3"/>
-    <col min="14" max="1025" width="11.33203125" style="3"/>
-    <col min="1026" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="5"/>
+    <col min="3" max="4" width="50.33203125" style="5"/>
+    <col min="5" max="10" width="25.1640625" style="5"/>
+    <col min="11" max="11" width="50.33203125" style="5"/>
+    <col min="12" max="13" width="25.1640625" style="5"/>
+    <col min="14" max="1025" width="11.33203125" style="5"/>
+    <col min="1026" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17">
@@ -771,91 +1929,78 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="409.6">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -870,98 +2015,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK95"/>
+  <dimension ref="A1:E423"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="25.1640625" style="3"/>
+    <col min="1" max="1" width="25.1640625" style="3"/>
+    <col min="2" max="2" width="38.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="50.33203125" style="3"/>
     <col min="5" max="5" width="20.1640625" style="3"/>
     <col min="6" max="1025" width="11.33203125" style="3"/>
-    <col min="1026" max="16384" width="8.83203125" style="4"/>
+    <col min="1026" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>457</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>457</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -969,13 +2106,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -983,13 +2120,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -997,13 +2134,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1011,13 +2148,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1025,13 +2162,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1039,13 +2176,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1053,13 +2190,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1067,13 +2204,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1081,13 +2218,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1095,13 +2232,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1109,13 +2246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1123,13 +2260,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1137,13 +2274,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1151,13 +2288,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1165,13 +2302,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1179,13 +2316,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1193,13 +2330,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1207,13 +2344,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1221,13 +2358,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1235,13 +2372,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1249,13 +2386,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1263,13 +2400,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1277,13 +2414,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1291,13 +2428,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1305,13 +2442,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1319,13 +2456,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -1333,13 +2470,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -1347,13 +2484,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1361,27 +2498,27 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -1389,13 +2526,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -1403,13 +2540,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -1417,13 +2554,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -1431,13 +2568,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -1445,13 +2582,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -1459,13 +2596,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -1473,13 +2610,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -1487,13 +2624,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -1501,13 +2638,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -1515,13 +2652,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -1529,13 +2666,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -1543,13 +2680,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -1557,13 +2694,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -1571,13 +2708,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -1585,13 +2722,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -1599,13 +2736,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -1613,13 +2750,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
@@ -1627,13 +2764,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
@@ -1641,13 +2778,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -1655,13 +2792,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
@@ -1669,13 +2806,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
@@ -1683,13 +2820,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
@@ -1697,13 +2834,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
@@ -1711,13 +2848,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
@@ -1725,13 +2862,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E61" s="3">
         <v>2</v>
@@ -1739,13 +2876,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
@@ -1753,13 +2890,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E63" s="3">
         <v>2</v>
@@ -1767,13 +2904,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
@@ -1781,13 +2918,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -1795,422 +2932,5014 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="E67" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E68" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E69" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="E70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E72" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E74" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E75" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="E76" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E77" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="E79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="E81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="E82" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="E85" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E86" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="E87" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="E88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="E89" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E90" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E91" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="E92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E93" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E94" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="E95" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E130" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E131" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E137" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E149" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E151" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E152" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E153" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E155" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E156" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E159" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E160" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E161" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E162" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E163" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E164" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E165" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E166" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E167" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E169" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E170" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E171" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E173" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E174" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E177" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E178" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E179" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E180" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E182" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E183" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E184" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E185" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E186" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E189" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E190" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E191" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E192" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E193" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E194" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E195" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E196" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E197" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E198" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E199" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E201" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E202" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E203" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E205" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E206" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E207" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E208" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E209" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E210" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E211" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E212" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E213" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E215" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E216" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E217" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E218" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E219" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E220" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E221" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E222" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E223" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E224" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E225" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E226" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E227" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E228" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E229" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E230" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E231" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E232" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E233" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E234" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E235" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E236" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E237" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E238" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E239" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E240" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E241" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E242" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E243" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E244" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E245" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E246" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E247" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E248" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E249" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E250" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E251" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E252" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E253" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E254" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E255" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E256" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E257" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E258" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E259" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E260" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E261" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E262" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E263" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E264" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E265" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E266" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E267" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E268" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E269" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E270" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E271" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E272" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E273" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E274" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E275" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E276" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E277" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E278" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E279" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E280" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E281" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E282" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E283" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E284" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E285" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E286" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E287" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E288" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E289" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E290" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E291" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E292" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E293" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E294" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E295" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E296" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E297" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E298" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E299" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E300" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E301" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E302" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E303" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E304" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E305" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E306" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E307" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E308" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E309" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E310" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E311" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E312" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E313" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E314" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E315" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E316" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E317" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E318" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E319" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E320" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E321" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E322" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E323" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E324" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E325" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E326" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E327" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E328" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E329" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E330" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E331" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E332" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E333" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E334" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E335" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E336" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E337" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E338" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E339" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E340" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E341" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E342" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E343" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E344" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E345" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E346" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E347" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E348" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E349" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E350" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E351" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E352" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E353" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E354" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E355" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E356" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E357" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E358" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E359" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E360" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E361" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E362" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E363" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E364" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E365" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E366" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E367" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E368" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E369" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E370" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E371" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E372" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E373" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E374" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E375" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E376" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E377" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E378" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E379" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E380" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E381" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E382" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E383" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E384" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E385" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E386" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E387" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E388" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E389" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E390" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E391" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E392" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E393" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E394" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E395" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E396" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E397" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E398" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E399" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E400" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E401" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E402" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E403" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E404" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E405" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E406" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E407" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E408" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E409" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E410" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E411" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E412" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E413" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E414" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E415" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E416" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E417" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E418" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E419" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E420" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E421" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E422" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E423" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2244,34 +7973,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>71</v>
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
